--- a/09_Literature_Review/04_Literature Review_Blockchain_Implications for Business Models.xlsx
+++ b/09_Literature_Review/04_Literature Review_Blockchain_Implications for Business Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/01_Uni/5. Semester/01_Masterarbeit/03_R_Project_MA/09_Literature_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3CE849-96BD-084E-840D-4DE95F4370E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CAE6E9-46D0-C649-988F-69DCDEC17926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I. Design" sheetId="31" r:id="rId1"/>
@@ -4821,8 +4821,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="G9" s="106">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="107"/>
       <c r="I9" s="91"/>
@@ -4938,7 +4938,7 @@
         <v>153</v>
       </c>
       <c r="G10" s="139">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="108">
         <f>SUM(H9:H9)</f>
